--- a/arc/xls/arc_Libro5.xlsx
+++ b/arc/xls/arc_Libro5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvanrivera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A6C1F0-C6A6-4FB9-A6A4-5E2FBF5968CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FADE61-E71A-4127-B526-8ECFE7D21B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="2730" windowWidth="13350" windowHeight="11385" xr2:uid="{83EB8D65-2FC0-49AE-950B-5A8B69ED4B02}"/>
+    <workbookView xWindow="4020" yWindow="3330" windowWidth="19020" windowHeight="11385" xr2:uid="{83EB8D65-2FC0-49AE-950B-5A8B69ED4B02}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="B2:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,8 +503,8 @@
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +536,9 @@
       <c r="E3" s="10">
         <v>15</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="10">
+        <v>105</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="1">
         <v>1072642921</v>

--- a/arc/xls/arc_Libro5.xlsx
+++ b/arc/xls/arc_Libro5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duvanrivera\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FADE61-E71A-4127-B526-8ECFE7D21B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC937A86-0E49-45D1-A4D3-64CF4AFF2343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="3330" windowWidth="19020" windowHeight="11385" xr2:uid="{83EB8D65-2FC0-49AE-950B-5A8B69ED4B02}"/>
   </bookViews>
@@ -536,9 +536,7 @@
       <c r="E3" s="10">
         <v>15</v>
       </c>
-      <c r="F3" s="10">
-        <v>105</v>
-      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="1">
         <v>1072642921</v>
